--- a/Gantt_chart-V1.xlsx
+++ b/Gantt_chart-V1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhd\Documents\Year 3\T2\2810ICT - Software Technologies\Milestone1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/vincent_to_griffithuni_edu_au/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2139FB44-0BCA-4225-A400-ED320AFBBF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD459376-FA7C-457F-9D0F-33B8A6A87F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +53,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>PERIODS</t>
+    <t>Nutrition Analysis and Tracking App Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Period 
+Highlight</t>
+  </si>
+  <si>
+    <t>Plan Duration</t>
+  </si>
+  <si>
+    <t>Actual Start</t>
   </si>
   <si>
     <r>
@@ -123,40 +147,30 @@
     </r>
   </si>
   <si>
-    <t>Actual Start</t>
-  </si>
-  <si>
-    <t>Plan Duration</t>
-  </si>
-  <si>
-    <t>Project Title</t>
+    <t>Activity No. and Name</t>
   </si>
   <si>
     <t>Plan
 Start</t>
   </si>
   <si>
+    <t>Plan
+Duration</t>
+  </si>
+  <si>
+    <t>Actual
+Start</t>
+  </si>
+  <si>
     <t>Actual
 Duration</t>
   </si>
   <si>
-    <t>Actual
-Start</t>
-  </si>
-  <si>
-    <t>Plan
-Duration</t>
-  </si>
-  <si>
     <t>Percent
 Complete</t>
   </si>
   <si>
-    <t xml:space="preserve"> Period 
-Highlight</t>
-  </si>
-  <si>
-    <t>Activity No. and Name</t>
+    <t>PERIODS</t>
   </si>
   <si>
     <t>1. Define the project requirements</t>
@@ -177,12 +191,12 @@
     <t>6. Create WBS</t>
   </si>
   <si>
+    <t>7. Define activities</t>
+  </si>
+  <si>
     <t>8. Sequence activities</t>
   </si>
   <si>
-    <t>7. Define activities</t>
-  </si>
-  <si>
     <t>9. Estimate activities duration</t>
   </si>
   <si>
@@ -192,10 +206,10 @@
     <t>11. Consider resource availability and risks</t>
   </si>
   <si>
+    <t>12. Acquire project team</t>
+  </si>
+  <si>
     <t>13. Assign tasks</t>
-  </si>
-  <si>
-    <t>12. Acquire project team</t>
   </si>
   <si>
     <t>14. User Interface Design</t>
@@ -244,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -611,43 +625,43 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,10 +831,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,26 +1066,27 @@
   </sheetPr>
   <dimension ref="B1:BO45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="CS20" sqref="CS20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="44.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="2.75" style="1"/>
     <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1083,53 +1094,53 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:67" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+    <row r="2" spans="2:67" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="20" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2" s="11">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="30"/>
       <c r="AH2" s="16"/>
       <c r="AI2" s="18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ2" s="19"/>
       <c r="AK2" s="19"/>
@@ -1139,27 +1150,27 @@
       <c r="AO2" s="19"/>
       <c r="AP2" s="19"/>
     </row>
-    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+      <c r="B3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>0</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
@@ -1181,13 +1192,13 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1">
       <c r="B4" s="34"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1369,7 +1380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:67" ht="30" customHeight="1">
       <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1389,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:67" ht="30" customHeight="1">
       <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
@@ -1426,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1">
       <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1446,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
@@ -1469,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:67" ht="30" customHeight="1">
       <c r="B10" s="22" t="s">
         <v>19</v>
       </c>
@@ -1489,9 +1500,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:67" ht="30" customHeight="1">
       <c r="B11" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -1509,9 +1520,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>7</v>
@@ -1529,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
@@ -1540,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1549,7 +1560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
@@ -1559,13 +1570,17 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
       <c r="G14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1">
       <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1575,15 +1590,19 @@
       <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
       <c r="G15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5">
         <v>12</v>
@@ -1591,15 +1610,19 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
       <c r="G16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="30" customHeight="1">
       <c r="B17" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5">
         <v>13</v>
@@ -1607,13 +1630,17 @@
       <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="30" customHeight="1">
       <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1623,13 +1650,17 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6</v>
+      </c>
       <c r="G18" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="30" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1639,13 +1670,17 @@
       <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="5">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
       <c r="G19" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="30" customHeight="1">
       <c r="B20" s="22" t="s">
         <v>29</v>
       </c>
@@ -1661,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="30" customHeight="1">
       <c r="B21" s="22" t="s">
         <v>30</v>
       </c>
@@ -1677,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="30" customHeight="1">
       <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
@@ -1693,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" ht="30" customHeight="1">
       <c r="B23" s="22" t="s">
         <v>32</v>
       </c>
@@ -1703,13 +1738,15 @@
       <c r="D23" s="5">
         <v>48</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>7</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="30" customHeight="1">
       <c r="B24" s="22" t="s">
         <v>33</v>
       </c>
@@ -1719,13 +1756,15 @@
       <c r="D24" s="5">
         <v>48</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>7</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="30" customHeight="1">
       <c r="B25" s="22" t="s">
         <v>34</v>
       </c>
@@ -1741,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" ht="30" customHeight="1">
       <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
@@ -1751,13 +1790,15 @@
       <c r="D26" s="5">
         <v>48</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>7</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="30" customHeight="1">
       <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
@@ -1773,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" ht="30" customHeight="1">
       <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
@@ -1789,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" ht="30" customHeight="1">
       <c r="B29" s="22" t="s">
         <v>38</v>
       </c>
@@ -1805,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" ht="30" customHeight="1">
       <c r="B30" s="22" t="s">
         <v>39</v>
       </c>
@@ -1821,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" ht="30" customHeight="1">
       <c r="B31" s="22" t="s">
         <v>40</v>
       </c>
@@ -1837,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" ht="30" customHeight="1">
       <c r="B32" s="22"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1865,7 +1906,7 @@
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
-    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" ht="30" customHeight="1">
       <c r="B33" s="22"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1893,7 +1934,7 @@
       <c r="Z33"/>
       <c r="AA33"/>
     </row>
-    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" ht="30" customHeight="1">
       <c r="B34" s="22"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1921,7 +1962,7 @@
       <c r="Z34"/>
       <c r="AA34"/>
     </row>
-    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" ht="30" customHeight="1">
       <c r="B35" s="22"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1949,7 +1990,7 @@
       <c r="Z35"/>
       <c r="AA35"/>
     </row>
-    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" ht="30" customHeight="1">
       <c r="B36" s="22"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1977,7 +2018,7 @@
       <c r="Z36"/>
       <c r="AA36"/>
     </row>
-    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" ht="30" customHeight="1">
       <c r="B37" s="22"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2005,7 +2046,7 @@
       <c r="Z37"/>
       <c r="AA37"/>
     </row>
-    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" ht="30" customHeight="1">
       <c r="B38" s="22"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2033,7 +2074,7 @@
       <c r="Z38"/>
       <c r="AA38"/>
     </row>
-    <row r="39" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" ht="30" customHeight="1">
       <c r="B39" s="22"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2061,7 +2102,7 @@
       <c r="Z39"/>
       <c r="AA39"/>
     </row>
-    <row r="40" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" ht="30" customHeight="1">
       <c r="B40" s="22"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2089,7 +2130,7 @@
       <c r="Z40"/>
       <c r="AA40"/>
     </row>
-    <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" ht="30" customHeight="1">
       <c r="B41" s="22"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2117,7 +2158,7 @@
       <c r="Z41"/>
       <c r="AA41"/>
     </row>
-    <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" ht="30" customHeight="1">
       <c r="B42" s="22"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2145,7 +2186,7 @@
       <c r="Z42"/>
       <c r="AA42"/>
     </row>
-    <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" ht="30" customHeight="1">
       <c r="B43" s="22"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2173,7 +2214,7 @@
       <c r="Z43"/>
       <c r="AA43"/>
     </row>
-    <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" ht="30" customHeight="1">
       <c r="B44" s="22"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2201,7 +2242,7 @@
       <c r="Z44"/>
       <c r="AA44"/>
     </row>
-    <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" ht="30" customHeight="1">
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
@@ -2569,47 +2610,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0522C58-8C03-4B93-A2BC-7DCB917A32AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1f55c86-91c1-47ae-a884-d9a92610ea86"/>
-    <ds:schemaRef ds:uri="9f68bc41-5f56-45d5-9d77-02eca8f07113"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0522C58-8C03-4B93-A2BC-7DCB917A32AA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A57BF8F-7247-40AD-9AF9-22AEA7485C77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A57BF8F-7247-40AD-9AF9-22AEA7485C77}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283DF080-A059-424A-AA9E-6BEC279424B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9f68bc41-5f56-45d5-9d77-02eca8f07113"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a1f55c86-91c1-47ae-a884-d9a92610ea86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283DF080-A059-424A-AA9E-6BEC279424B4}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
